--- a/natmiOut/OldD0/LR-pairs_lrc2p/Tctn1-Tmem67.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Tctn1-Tmem67.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.59491983740501</v>
+        <v>2.748846</v>
       </c>
       <c r="H2">
-        <v>2.59491983740501</v>
+        <v>8.246537999999999</v>
       </c>
       <c r="I2">
-        <v>0.1852045956297983</v>
+        <v>0.1900189725460084</v>
       </c>
       <c r="J2">
-        <v>0.1852045956297983</v>
+        <v>0.1900189725460084</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.25221288172954</v>
+        <v>2.633247</v>
       </c>
       <c r="N2">
-        <v>2.25221288172954</v>
+        <v>7.899741</v>
       </c>
       <c r="O2">
-        <v>0.2242425694568319</v>
+        <v>0.2470706468821852</v>
       </c>
       <c r="P2">
-        <v>0.2242425694568319</v>
+        <v>0.2470706468821852</v>
       </c>
       <c r="Q2">
-        <v>5.844311884859088</v>
+        <v>7.238390482961999</v>
       </c>
       <c r="R2">
-        <v>5.844311884859088</v>
+        <v>65.14551434665799</v>
       </c>
       <c r="S2">
-        <v>0.04153075439923951</v>
+        <v>0.04694811046683049</v>
       </c>
       <c r="T2">
-        <v>0.04153075439923951</v>
+        <v>0.04694811046683049</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.59491983740501</v>
+        <v>2.748846</v>
       </c>
       <c r="H3">
-        <v>2.59491983740501</v>
+        <v>8.246537999999999</v>
       </c>
       <c r="I3">
-        <v>0.1852045956297983</v>
+        <v>0.1900189725460084</v>
       </c>
       <c r="J3">
-        <v>0.1852045956297983</v>
+        <v>0.1900189725460084</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.90187200452135</v>
+        <v>5.113233999999999</v>
       </c>
       <c r="N3">
-        <v>4.90187200452135</v>
+        <v>15.339702</v>
       </c>
       <c r="O3">
-        <v>0.4880570492955641</v>
+        <v>0.4797613106708119</v>
       </c>
       <c r="P3">
-        <v>0.4880570492955641</v>
+        <v>0.479761310670812</v>
       </c>
       <c r="Q3">
-        <v>12.71996490495271</v>
+        <v>14.055492827964</v>
       </c>
       <c r="R3">
-        <v>12.71996490495271</v>
+        <v>126.499435451676</v>
       </c>
       <c r="S3">
-        <v>0.09039040845905749</v>
+        <v>0.09116375132099402</v>
       </c>
       <c r="T3">
-        <v>0.09039040845905749</v>
+        <v>0.09116375132099401</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.59491983740501</v>
+        <v>2.748846</v>
       </c>
       <c r="H4">
-        <v>2.59491983740501</v>
+        <v>8.246537999999999</v>
       </c>
       <c r="I4">
-        <v>0.1852045956297983</v>
+        <v>0.1900189725460084</v>
       </c>
       <c r="J4">
-        <v>0.1852045956297983</v>
+        <v>0.1900189725460084</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.88956064985284</v>
+        <v>2.911389666666667</v>
       </c>
       <c r="N4">
-        <v>2.88956064985284</v>
+        <v>8.734169</v>
       </c>
       <c r="O4">
-        <v>0.2877003812476041</v>
+        <v>0.2731680424470029</v>
       </c>
       <c r="P4">
-        <v>0.2877003812476041</v>
+        <v>0.2731680424470029</v>
       </c>
       <c r="Q4">
-        <v>7.498178251688047</v>
+        <v>8.002961839657999</v>
       </c>
       <c r="R4">
-        <v>7.498178251688047</v>
+        <v>72.02665655692199</v>
       </c>
       <c r="S4">
-        <v>0.05328343277150132</v>
+        <v>0.0519071107581839</v>
       </c>
       <c r="T4">
-        <v>0.05328343277150132</v>
+        <v>0.05190711075818388</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.55597075472858</v>
+        <v>7.625013333333333</v>
       </c>
       <c r="H5">
-        <v>7.55597075472858</v>
+        <v>22.87504</v>
       </c>
       <c r="I5">
-        <v>0.5392846777184173</v>
+        <v>0.5270928961642867</v>
       </c>
       <c r="J5">
-        <v>0.5392846777184173</v>
+        <v>0.5270928961642866</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.25221288172954</v>
+        <v>2.633247</v>
       </c>
       <c r="N5">
-        <v>2.25221288172954</v>
+        <v>7.899741</v>
       </c>
       <c r="O5">
-        <v>0.2242425694568319</v>
+        <v>0.2470706468821852</v>
       </c>
       <c r="P5">
-        <v>0.2242425694568319</v>
+        <v>0.2470706468821852</v>
       </c>
       <c r="Q5">
-        <v>17.01765466777139</v>
+        <v>20.07854348496</v>
       </c>
       <c r="R5">
-        <v>17.01765466777139</v>
+        <v>180.70689136464</v>
       </c>
       <c r="S5">
-        <v>0.1209305818002774</v>
+        <v>0.1302291828223148</v>
       </c>
       <c r="T5">
-        <v>0.1209305818002774</v>
+        <v>0.1302291828223148</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.55597075472858</v>
+        <v>7.625013333333333</v>
       </c>
       <c r="H6">
-        <v>7.55597075472858</v>
+        <v>22.87504</v>
       </c>
       <c r="I6">
-        <v>0.5392846777184173</v>
+        <v>0.5270928961642867</v>
       </c>
       <c r="J6">
-        <v>0.5392846777184173</v>
+        <v>0.5270928961642866</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.90187200452135</v>
+        <v>5.113233999999999</v>
       </c>
       <c r="N6">
-        <v>4.90187200452135</v>
+        <v>15.339702</v>
       </c>
       <c r="O6">
-        <v>0.4880570492955641</v>
+        <v>0.4797613106708119</v>
       </c>
       <c r="P6">
-        <v>0.4880570492955641</v>
+        <v>0.479761310670812</v>
       </c>
       <c r="Q6">
-        <v>37.03840150958609</v>
+        <v>38.98847742645332</v>
       </c>
       <c r="R6">
-        <v>37.03840150958609</v>
+        <v>350.8962968380799</v>
       </c>
       <c r="S6">
-        <v>0.26320168853756</v>
+        <v>0.2528787787090523</v>
       </c>
       <c r="T6">
-        <v>0.26320168853756</v>
+        <v>0.2528787787090523</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.55597075472858</v>
+        <v>7.625013333333333</v>
       </c>
       <c r="H7">
-        <v>7.55597075472858</v>
+        <v>22.87504</v>
       </c>
       <c r="I7">
-        <v>0.5392846777184173</v>
+        <v>0.5270928961642867</v>
       </c>
       <c r="J7">
-        <v>0.5392846777184173</v>
+        <v>0.5270928961642866</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.88956064985284</v>
+        <v>2.911389666666667</v>
       </c>
       <c r="N7">
-        <v>2.88956064985284</v>
+        <v>8.734169</v>
       </c>
       <c r="O7">
-        <v>0.2877003812476041</v>
+        <v>0.2731680424470029</v>
       </c>
       <c r="P7">
-        <v>0.2877003812476041</v>
+        <v>0.2731680424470029</v>
       </c>
       <c r="Q7">
-        <v>21.83343576430257</v>
+        <v>22.19938502686222</v>
       </c>
       <c r="R7">
-        <v>21.83343576430257</v>
+        <v>199.79446524176</v>
       </c>
       <c r="S7">
-        <v>0.1551524073805799</v>
+        <v>0.1439849346329195</v>
       </c>
       <c r="T7">
-        <v>0.1551524073805799</v>
+        <v>0.1439849346329195</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.86020793693284</v>
+        <v>4.092306666666667</v>
       </c>
       <c r="H8">
-        <v>3.86020793693284</v>
+        <v>12.27692</v>
       </c>
       <c r="I8">
-        <v>0.2755107266517844</v>
+        <v>0.282888131289705</v>
       </c>
       <c r="J8">
-        <v>0.2755107266517844</v>
+        <v>0.282888131289705</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.25221288172954</v>
+        <v>2.633247</v>
       </c>
       <c r="N8">
-        <v>2.25221288172954</v>
+        <v>7.899741</v>
       </c>
       <c r="O8">
-        <v>0.2242425694568319</v>
+        <v>0.2470706468821852</v>
       </c>
       <c r="P8">
-        <v>0.2242425694568319</v>
+        <v>0.2470706468821852</v>
       </c>
       <c r="Q8">
-        <v>8.694010041714755</v>
+        <v>10.77605425308</v>
       </c>
       <c r="R8">
-        <v>8.694010041714755</v>
+        <v>96.98448827772</v>
       </c>
       <c r="S8">
-        <v>0.06178123325731499</v>
+        <v>0.06989335359303996</v>
       </c>
       <c r="T8">
-        <v>0.06178123325731499</v>
+        <v>0.06989335359303996</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.86020793693284</v>
+        <v>4.092306666666667</v>
       </c>
       <c r="H9">
-        <v>3.86020793693284</v>
+        <v>12.27692</v>
       </c>
       <c r="I9">
-        <v>0.2755107266517844</v>
+        <v>0.282888131289705</v>
       </c>
       <c r="J9">
-        <v>0.2755107266517844</v>
+        <v>0.282888131289705</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.90187200452135</v>
+        <v>5.113233999999999</v>
       </c>
       <c r="N9">
-        <v>4.90187200452135</v>
+        <v>15.339702</v>
       </c>
       <c r="O9">
-        <v>0.4880570492955641</v>
+        <v>0.4797613106708119</v>
       </c>
       <c r="P9">
-        <v>0.4880570492955641</v>
+        <v>0.479761310670812</v>
       </c>
       <c r="Q9">
-        <v>18.92224521768221</v>
+        <v>20.92492158642666</v>
       </c>
       <c r="R9">
-        <v>18.92224521768221</v>
+        <v>188.32429427784</v>
       </c>
       <c r="S9">
-        <v>0.1344649522989466</v>
+        <v>0.1357187806407656</v>
       </c>
       <c r="T9">
-        <v>0.1344649522989466</v>
+        <v>0.1357187806407656</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.86020793693284</v>
+        <v>4.092306666666667</v>
       </c>
       <c r="H10">
-        <v>3.86020793693284</v>
+        <v>12.27692</v>
       </c>
       <c r="I10">
-        <v>0.2755107266517844</v>
+        <v>0.282888131289705</v>
       </c>
       <c r="J10">
-        <v>0.2755107266517844</v>
+        <v>0.282888131289705</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.88956064985284</v>
+        <v>2.911389666666667</v>
       </c>
       <c r="N10">
-        <v>2.88956064985284</v>
+        <v>8.734169</v>
       </c>
       <c r="O10">
-        <v>0.2877003812476041</v>
+        <v>0.2731680424470029</v>
       </c>
       <c r="P10">
-        <v>0.2877003812476041</v>
+        <v>0.2731680424470029</v>
       </c>
       <c r="Q10">
-        <v>11.15430495481075</v>
+        <v>11.91429934216444</v>
       </c>
       <c r="R10">
-        <v>11.15430495481075</v>
+        <v>107.22869407948</v>
       </c>
       <c r="S10">
-        <v>0.07926454109552281</v>
+        <v>0.07727599705589946</v>
       </c>
       <c r="T10">
-        <v>0.07926454109552281</v>
+        <v>0.07727599705589945</v>
       </c>
     </row>
   </sheetData>
